--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982858.6213505906</v>
+        <v>956454.4025782953</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7128448.701475536</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476108.837864223</v>
+        <v>2626870.006455272</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10432492.37306825</v>
+        <v>10820131.0520543</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>138.6235212766175</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>123.0607915108179</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>147.3103929946384</v>
+        <v>44.44625475318942</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>9.012067248099665</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.94389492651078</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>57.98576519627179</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.62350367340397</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>340.0237825764901</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.1862431834474</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.62350367340443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>15.44847849679151</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>112.9416910403794</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>58.93891326891428</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>80.50796942908597</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.50675189249552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>157.1747158471183</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>110.9682788846974</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>101.1037207411571</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.38888126667987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>77.31354443380498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>56.00855464855939</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>70.82764119510642</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>90.41948680756546</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>164.2540732785631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>192.1675620474797</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>10.20389322926684</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.006596680237</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C2" t="n">
-        <v>1349.006596680237</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="D2" t="n">
-        <v>990.7408980734865</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="E2" t="n">
-        <v>604.9526454752422</v>
+        <v>1007.196524520692</v>
       </c>
       <c r="F2" t="n">
-        <v>193.9667406856346</v>
+        <v>596.2106197310845</v>
       </c>
       <c r="G2" t="n">
-        <v>193.9667406856346</v>
+        <v>178.2468116292714</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>178.2468116292714</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.74576872017</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>2125.74576872017</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y2" t="n">
-        <v>1735.606436744359</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064341</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064341</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064341</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064341</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362301</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C5" t="n">
-        <v>792.1236065739691</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>792.1236065739691</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>792.1236065739691</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,13 +4591,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
         <v>2388.358616186807</v>
@@ -4609,10 +4609,10 @@
         <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362301</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037878</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>807.393450832883</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4075460432754</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.959449965771</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9969330253592</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373485</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>468.42649406655</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350724</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623769</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936376</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>2669.933035536899</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>2669.933035536899</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>2669.933035536899</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>2669.933035536899</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>2317.164380266785</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>1943.698622005704</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.559290029893</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3062050962127</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8531758150857</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9187661538344</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>448.681311148379</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>302.146753175264</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>165.5050957234327</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990733</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>246.6565409677914</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>440.8349669871899</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>788.1797623177058</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
-        <v>1166.280567971507</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.824967998517</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2179.82927303483</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2438.195165861565</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.986726597623</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.374760706703</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.608979049431</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.522806046712</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.370697814969</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.133341086767</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.281840881235</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.521542116281</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.385797430379</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C13" t="n">
-        <v>888.4496145024718</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D13" t="n">
-        <v>738.3329750901361</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E13" t="n">
-        <v>590.419881507743</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>443.5299340098326</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>275.5935643146148</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>127.3000562379442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485943</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866545</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877605</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282812</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.469712732903</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1424.447349606354</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1629.372157534689</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.816392302166</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1687.816392302166</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.816392302166</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V13" t="n">
-        <v>1687.816392302166</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W13" t="n">
-        <v>1687.816392302166</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X13" t="n">
-        <v>1459.826841404148</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.034262260618</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.175505447095</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1194.175505447095</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.175505447095</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>808.3872528488509</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>397.4013480592434</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373489</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665504</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552597</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350724</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623769</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571628</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.18474111696</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748109</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487029</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.775345511217</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3062050962127</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8531758150857</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9187661538344</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>448.681311148379</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1467531752639</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5050957234327</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>72.3129244299073</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>121.8264159807867</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>316.0048420001853</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>983.5492420271955</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1361.650047680997</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1764.166701502141</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2179.82927303483</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2438.195165861565</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.986726597623</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.374760706703</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.608979049431</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.522806046712</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.370697814969</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.133341086767</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.281840881235</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.521542116281</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.385797430379</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C16" t="n">
-        <v>888.4496145024723</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>738.3329750901365</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>590.4198815077434</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F16" t="n">
-        <v>443.529934009833</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G16" t="n">
-        <v>275.5935643146153</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>127.3000562379447</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485945</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866546</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877605</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282813</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732904</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606355</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534689</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1687.816392302166</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1687.816392302166</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1687.816392302166</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1687.816392302166</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1687.816392302166</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1459.826841404149</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.034262260619</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5518,19 +5518,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2782.232616025902</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3329.011433084685</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5548,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>425.7583423057187</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C19" t="n">
-        <v>425.7583423057187</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D19" t="n">
-        <v>425.7583423057187</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>356.5334981487082</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>209.6435506507978</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384227</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>874.5404723472661</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X19" t="n">
-        <v>646.5509214492488</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.7583423057187</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="20">
@@ -5746,34 +5746,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763412</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763412</v>
+        <v>322.7981269008616</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>4364.599222816073</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>4075.496355941717</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>3820.81186773583</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>3531.394697698869</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>3303.405146800852</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y22" t="n">
-        <v>3082.612567657322</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -6016,25 +6016,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2917.269290763411</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>2917.269290763411</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763411</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763411</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699243</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.981410493357</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>3441.564240456396</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>3213.574689558379</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>2992.782110414849</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,46 +6211,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>818.2062848686767</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522031</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1956.343466104704</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W28" t="n">
-        <v>1666.926296067743</v>
+        <v>1129.444139055656</v>
       </c>
       <c r="X28" t="n">
-        <v>1438.936745169726</v>
+        <v>1129.444139055656</v>
       </c>
       <c r="Y28" t="n">
-        <v>1218.144166026196</v>
+        <v>908.6515599121255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,7 +6448,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
@@ -6460,55 +6460,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,64 +6518,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2917.269290763411</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="C31" t="n">
-        <v>2917.269290763411</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.269290763411</v>
+        <v>523.266135246672</v>
       </c>
       <c r="E31" t="n">
-        <v>2917.269290763411</v>
+        <v>375.3530416642789</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246546</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816072</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>4075.496355941716</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>3820.811867735829</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>3531.394697698868</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X31" t="n">
-        <v>3303.405146800851</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y31" t="n">
-        <v>3082.612567657321</v>
+        <v>673.3827746590077</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.336921276364</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501056</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.206478295169</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W34" t="n">
-        <v>1288.206478295169</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X34" t="n">
-        <v>1288.206478295169</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.985386106604</v>
+        <v>811.5418683145538</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3314.416602430729</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C37" t="n">
-        <v>3145.480419502822</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D37" t="n">
-        <v>2995.363780090487</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E37" t="n">
-        <v>2917.269290763411</v>
+        <v>152.1353320732019</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4778.05172241972</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4488.948855545364</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4234.264367339477</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>3944.847197302516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>3716.857646404499</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3496.065067260969</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7189,13 +7189,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>877.1197344942216</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C43" t="n">
-        <v>708.1835515663147</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D43" t="n">
-        <v>558.0669121539789</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.473983799873</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.473983799873</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1279.560778467991</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.768199324461</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2047.844055175504</v>
+        <v>2584.171204687568</v>
       </c>
       <c r="N44" t="n">
-        <v>3027.596327402151</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O44" t="n">
-        <v>3530.568798281487</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P44" t="n">
-        <v>4243.923885728434</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4702.402088237422</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3698.827990809239</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>3529.891807881332</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>3379.775168468997</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>3231.862074886603</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>4583.943073886913</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>4329.258585681026</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>4329.258585681026</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>4101.269034783009</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y46" t="n">
-        <v>3880.476455639479</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>40.32868412741828</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>267.7047941473395</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393206</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>363.7626282652911</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>70.36188534987451</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.26494649393203</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9175,10 +9175,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>246.4545694808461</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>67.53663776704173</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>80.35488666587514</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>16.80057335908779</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>185.2992514877396</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>28.87052473404337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22603,13 +22603,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22764,16 +22764,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>217.9624987763692</v>
+        <v>320.8266370178181</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22959,13 +22959,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>61.5316190581546</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -23083,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>340.2289014693134</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23241,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>24.62049154535646</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.98890212727139</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>109.261055902356</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>30.68166329459041</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>71.41335877704483</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031652</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>162.5760987035354</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>30.68166329458992</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521084</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>130.9854841497776</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>53.08411721864886</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696628</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>89.67655974929808</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>68.10750358912638</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>129.3482824894727</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696628</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>34.45276913823386</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>78.72825944078018</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.1957720854149</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>69.12041821276419</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>89.41249337437185</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>75.60632145146275</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>75.60632145146276</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>61.45558211047404</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>94.04427615813316</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>208.380760122828</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.351750417</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.3517504169</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771381.7646861495</v>
+        <v>993677.0719405207</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771381.7646861497</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993677.071940521</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.071940521</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405207</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>303610.2405165453</v>
+      </c>
+      <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="C2" t="n">
-        <v>303610.2405165455</v>
-      </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
-        <v>327765.7989333929</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="F2" t="n">
-        <v>327765.7989333928</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="G2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="H2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313322</v>
       </c>
       <c r="I2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="J2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="K2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313321</v>
       </c>
       <c r="L2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="M2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="N2" t="n">
+        <v>416935.8762313324</v>
+      </c>
+      <c r="O2" t="n">
         <v>416935.8762313325</v>
       </c>
-      <c r="O2" t="n">
-        <v>416935.8762313324</v>
-      </c>
       <c r="P2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313323</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502365</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>242267.3897762171</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125192.8247873505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>53660.56571087037</v>
       </c>
       <c r="D4" t="n">
-        <v>53660.56571087039</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>7134.15933084221</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>7134.159330842204</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
@@ -26453,7 +26453,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879413</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879414</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26493,13 +26493,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422877.2824722788</v>
+        <v>-428945.6962180981</v>
       </c>
       <c r="C6" t="n">
-        <v>167090.5967422657</v>
+        <v>161022.1829964464</v>
       </c>
       <c r="D6" t="n">
-        <v>167090.5967422655</v>
+        <v>161022.1829964463</v>
       </c>
       <c r="E6" t="n">
-        <v>-210372.64391648</v>
+        <v>-429116.618915138</v>
       </c>
       <c r="F6" t="n">
-        <v>258672.8118337563</v>
+        <v>298260.795078269</v>
       </c>
       <c r="G6" t="n">
-        <v>56665.36020430972</v>
+        <v>298260.7950782689</v>
       </c>
       <c r="H6" t="n">
-        <v>298932.7499805266</v>
+        <v>298260.7950782687</v>
       </c>
       <c r="I6" t="n">
-        <v>298932.749980527</v>
+        <v>298260.795078269</v>
       </c>
       <c r="J6" t="n">
-        <v>122509.5307879339</v>
+        <v>121837.5758856759</v>
       </c>
       <c r="K6" t="n">
-        <v>298932.749980527</v>
+        <v>298260.7950782688</v>
       </c>
       <c r="L6" t="n">
-        <v>298932.7499805269</v>
+        <v>298260.7950782686</v>
       </c>
       <c r="M6" t="n">
-        <v>298932.749980527</v>
+        <v>168618.4802393242</v>
       </c>
       <c r="N6" t="n">
-        <v>298932.749980527</v>
+        <v>298260.795078269</v>
       </c>
       <c r="O6" t="n">
-        <v>173739.9251931763</v>
+        <v>298260.795078269</v>
       </c>
       <c r="P6" t="n">
-        <v>298932.7499805268</v>
+        <v>298260.7950782687</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980344</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980346</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,28 +26968,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809478</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>128.2096553952634</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>520.2256578503745</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503745</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503745</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,16 +31041,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
         <v>193.1674799081577</v>
@@ -31062,25 +31062,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,31 +31120,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411436</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105703</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.4408974959969</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246317</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609224</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.336604854122578</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926391</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58853668998741</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206099</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411438</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717141</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105705</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047169</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728055</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333021</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.440897495997</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861148</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246319</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.92164719740461</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280109</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590635</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796768</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812346</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363778</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691388</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329288</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905496</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609225</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342645</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173925</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.33660485412258</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>52.14530795926392</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>201.45617766608</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781748</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073723</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>265.345214292107</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662139</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182729</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195865</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279936</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09458036510144613</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939235</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6284766961631</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832975</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511186</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780323</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215474</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198258</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.6601607549767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>196.1398242620187</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>350.8533286166827</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>674.2872727545557</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199342</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.0318795313709</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898481</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939236</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>271.6284766961632</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017268</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832978</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>460.334923508126</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511187</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780325</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215476</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198267</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.56912541456791</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>196.1398242620188</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>674.2872727545557</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>381.9200057109105</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>406.5824786072163</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>419.8611833663526</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>260.9756493199342</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.031879531371</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23273644898484</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692129</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713356</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831664</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.03458057320883</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>754.5075703690651</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>572.3386662151444</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>575.5896386552608</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>619.2760024961019</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>76.41377190131257</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>956454.4025782953</v>
+        <v>978120.5831006521</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>7128448.701475536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2626870.006455272</v>
+        <v>3476108.837864222</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10820131.0520543</v>
+        <v>10432492.37306825</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>123.0607915108179</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>219.132692658985</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>44.44625475318942</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>323.2180416857425</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>9.012067248099665</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>318.8084121711546</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>33.77936158462983</v>
       </c>
       <c r="W10" t="n">
-        <v>261.9025067912345</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873217</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>171.9428719443716</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344744</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.98576519627179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.9930710043735</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>28.09169576190941</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881778</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344744</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.25588147840188</v>
+        <v>152.6049647870749</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>70.82764119510642</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>112.9416910403794</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>58.93891326891428</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>80.50796942908597</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>157.1747158471183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>110.9682788846974</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>52.3896864884365</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.1037207411571</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>56.00855464855939</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>70.82764119510642</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>130.3899231758517</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.60776438732</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>90.41948680756546</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>104.2871089987315</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>86.66867554195403</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.20389322926684</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1392.984777118936</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1392.984777118936</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1392.984777118936</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1007.196524520692</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>596.2106197310845</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>178.2468116292714</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>178.2468116292714</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="Y2" t="n">
-        <v>1779.584617183058</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4512,25 +4512,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.7879015331887</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1209.375565101424</v>
       </c>
       <c r="E5" t="n">
         <v>882.8926947117852</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240418</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240418</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224073</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2414.382636290375</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>2414.382636290375</v>
+        <v>1373.77779650965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.243304314563</v>
+        <v>983.6384645338385</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,46 +4886,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>694.0084169492324</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>1624.575909889244</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749766</v>
+        <v>1624.575909889244</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551633</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001598</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>838.9376088552599</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>2574.994750559856</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>2401.315081929178</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>2401.315081929178</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2011.175749953366</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>537.8115956207112</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>845.2309936650829</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1223.331799318884</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1625.848453140028</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>1971.852758176341</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>301.0224619425389</v>
+        <v>478.8530223516095</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4509819463048</v>
+        <v>309.9168394237026</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>82.88339090485935</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866544</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057174</v>
+        <v>1398.700787260357</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.870226851287</v>
+        <v>1398.700787260357</v>
       </c>
       <c r="W13" t="n">
-        <v>931.4530568143261</v>
+        <v>1109.283617223397</v>
       </c>
       <c r="X13" t="n">
-        <v>703.4635059163088</v>
+        <v>881.2940663253794</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.6709267727787</v>
+        <v>660.5014871818493</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>1552.399895246661</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1183.437378306249</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>772.451473516642</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>468.4264940665496</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>838.9376088552585</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>1738.603625623767</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232733</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679679</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>440.8349669871897</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>748.2543650315613</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1126.355170685362</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1528.871824506506</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>1874.876129542819</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2438.195165861566</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.4741280307875</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>82.88339090485935</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866544</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1269.29622508089</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>980.1806200390827</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>725.4961318331958</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>436.0789617962352</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>208.0894108982179</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>208.0894108982179</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C19" t="n">
-        <v>504.4465917311013</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D19" t="n">
-        <v>504.4465917311013</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E19" t="n">
-        <v>356.5334981487082</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>209.6435506507978</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,13 +5822,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>491.7343098287685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>322.7981269008616</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>673.3827746590082</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5992,16 +5992,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6016,25 +6016,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157126</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>323.7721631878057</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E25" t="n">
         <v>242.4509819463048</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459524</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6232,16 +6232,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6253,7 +6253,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.0030950818858</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0669121539789</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6417,19 +6417,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1129.444139055656</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.444139055656</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6515599121255</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,13 +6448,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6493,22 +6493,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.3827746590077</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C31" t="n">
-        <v>673.3827746590077</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D31" t="n">
-        <v>523.266135246672</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>375.3530416642789</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
         <v>263.2638710736754</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570251</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590077</v>
+        <v>1131.647684885598</v>
       </c>
       <c r="Y31" t="n">
-        <v>673.3827746590077</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6706,22 +6706,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>2915.526830679739</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>811.5418683145538</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>811.5418683145538</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>811.5418683145538</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6955,34 +6955,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>300.048425655595</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>300.048425655595</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>300.048425655595</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>152.1353320732019</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>481.6968904858347</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C40" t="n">
-        <v>481.6968904858347</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D40" t="n">
-        <v>481.6968904858347</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E40" t="n">
         <v>410.1538185715858</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y40" t="n">
-        <v>481.6968904858347</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="41">
@@ -7387,58 +7387,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926782</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660289</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M42" t="n">
         <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>481.6968904858347</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C43" t="n">
-        <v>481.6968904858347</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D43" t="n">
-        <v>481.6968904858347</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>333.7837969034416</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>186.8938494055313</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7575,13 +7575,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>796.0318114168931</v>
       </c>
       <c r="Y43" t="n">
-        <v>481.6968904858347</v>
+        <v>575.239232273363</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2584.171204687568</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,7 +7757,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7766,7 +7766,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.4168978689405</v>
+        <v>498.9312815832561</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>329.9950986553492</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>329.9950986553492</v>
       </c>
       <c r="E46" t="n">
         <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7839,19 +7839,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593986</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W46" t="n">
-        <v>901.3723255570255</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X46" t="n">
-        <v>901.3723255570255</v>
+        <v>901.372325557026</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.0653626991802</v>
+        <v>680.5797464134959</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>97.95619053891062</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>17.26494649393211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>308.0334782747598</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.26494649393211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,19 +9409,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>107.5040408147554</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,10 +9889,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>64.28566532692525</v>
+        <v>374.169394802195</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>374.1693948021921</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>80.35488666587514</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400226</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>28.87052473404337</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>130.108276058428</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22752,28 +22752,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>83.36203824822886</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>209.1226826701055</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>320.8266370178181</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>58.71232838651923</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,10 +22840,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22959,13 +22959,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>61.5316190581546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,19 +22998,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>340.2289014693134</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>50.92268850731443</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23238,13 +23238,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>218.3582817391982</v>
       </c>
       <c r="W10" t="n">
-        <v>24.62049154535646</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.44749355031661</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.1742023667268</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>177.2980967730414</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>109.261055902356</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>40.62240201383881</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521088</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>354.6421459015712</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.44749355031661</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.1742023667268</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>162.5760987035354</v>
+        <v>27.22701539486241</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521088</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>75.60632145146275</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>53.08411721864886</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>89.67655974929808</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>68.10750358912638</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>129.3482824894727</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>34.45276913823386</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>234.1333118481545</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.72825944078018</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>89.41249337437185</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>75.60632145146275</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>95.31973221318549</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>75.60632145146276</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>121.4225463903056</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>59.76528710461514</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.380760122828</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761571.351750417</v>
+        <v>761571.3517504171</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761571.3517504169</v>
+        <v>761571.3517504168</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993677.0719405207</v>
+        <v>771381.7646861493</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993677.0719405208</v>
+        <v>771381.7646861494</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993677.071940521</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993677.0719405207</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
-        <v>416935.8762313324</v>
+        <v>327765.7989333927</v>
       </c>
       <c r="F2" t="n">
-        <v>416935.8762313325</v>
+        <v>327765.7989333926</v>
       </c>
       <c r="G2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="H2" t="n">
-        <v>416935.8762313322</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="I2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="J2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="K2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="L2" t="n">
         <v>416935.8762313324</v>
-      </c>
-      <c r="K2" t="n">
-        <v>416935.8762313321</v>
-      </c>
-      <c r="L2" t="n">
-        <v>416935.8762313323</v>
       </c>
       <c r="M2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="N2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="O2" t="n">
         <v>416935.8762313324</v>
-      </c>
-      <c r="O2" t="n">
-        <v>416935.8762313325</v>
       </c>
       <c r="P2" t="n">
         <v>416935.8762313323</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>469045.4557502361</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>242267.3897762178</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>125192.8247873505</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>7134.159330842223</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>7134.159330842223</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26496,22 +26496,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428945.6962180981</v>
+        <v>-423484.1238468606</v>
       </c>
       <c r="C6" t="n">
-        <v>161022.1829964464</v>
+        <v>166483.7553676836</v>
       </c>
       <c r="D6" t="n">
-        <v>161022.1829964463</v>
+        <v>166483.7553676837</v>
       </c>
       <c r="E6" t="n">
-        <v>-429116.618915138</v>
+        <v>-210864.45882241</v>
       </c>
       <c r="F6" t="n">
-        <v>298260.795078269</v>
+        <v>258180.996927826</v>
       </c>
       <c r="G6" t="n">
-        <v>298260.7950782689</v>
+        <v>56598.16471408337</v>
       </c>
       <c r="H6" t="n">
-        <v>298260.7950782687</v>
+        <v>298865.5544903009</v>
       </c>
       <c r="I6" t="n">
-        <v>298260.795078269</v>
+        <v>298865.5544903009</v>
       </c>
       <c r="J6" t="n">
-        <v>121837.5758856759</v>
+        <v>122442.3352977079</v>
       </c>
       <c r="K6" t="n">
-        <v>298260.7950782688</v>
+        <v>298865.5544903009</v>
       </c>
       <c r="L6" t="n">
-        <v>298260.7950782686</v>
+        <v>298865.554490301</v>
       </c>
       <c r="M6" t="n">
-        <v>168618.4802393242</v>
+        <v>298865.554490301</v>
       </c>
       <c r="N6" t="n">
-        <v>298260.795078269</v>
+        <v>298865.5544903011</v>
       </c>
       <c r="O6" t="n">
-        <v>298260.795078269</v>
+        <v>173672.7297029506</v>
       </c>
       <c r="P6" t="n">
-        <v>298260.7950782687</v>
+        <v>298865.5544903011</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980341</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980341</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>583.8233809809474</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>128.2096553952642</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600134</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206097</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411435</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717136</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>678.76486201057</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047165</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728051</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333017</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959968</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246315</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796763</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691385</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329285</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905493</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609222</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342643</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173923</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700318</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182709</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122575</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>15.4165995115357</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926389</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656575</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073721</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249031</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195861</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279932</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09458036510144607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600134</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206097</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411435</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717136</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>678.76486201057</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047165</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728051</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333017</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959968</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246315</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796763</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691385</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329285</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905493</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609222</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342643</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173923</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700318</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182709</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122575</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>15.4165995115357</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926389</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656575</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073721</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249031</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195861</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279932</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09458036510144607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>147.0417376939234</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>271.6284766961629</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017264</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832973</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081255</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359038</v>
+        <v>421.2112538511184</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>324.6445642780322</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>195.1352076215473</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>27.2367170719825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549766</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>294.0960148009292</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892643</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109102</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>406.582478607216</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164778</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>260.975649319934</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>334.1091672672199</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898477</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831662</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>59.03458057320874</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>147.0417376939234</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>271.6284766961629</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017264</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832973</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081255</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359038</v>
+        <v>421.2112538511184</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>324.6445642780322</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>195.1352076215473</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>27.2367170719825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549766</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892643</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109102</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>406.582478607216</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164778</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>569.0091275946938</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>124.0318795313708</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898477</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831662</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>59.03458057320874</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36129,19 +36129,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>615.5570417029745</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36360,19 +36360,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,10 +36609,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471024</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>572.3386662151444</v>
+        <v>882.2223956904141</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>882.2223956904114</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>619.2760024961019</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282419</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
